--- a/FC東京_data.xlsx
+++ b/FC東京_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota\portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FED2421-70A9-475A-AB82-908BDF40469C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A084EE5C-B3C0-4005-AEAC-E0BD881C1E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{ACBF2FC2-6D09-44A7-8CFB-341F6C5921C4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{ACBF2FC2-6D09-44A7-8CFB-341F6C5921C4}"/>
   </bookViews>
   <sheets>
     <sheet name="target" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="185" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -182,7 +182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -195,10 +195,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -517,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B60DBE-A4BC-4269-A267-3824D1D4C2D6}">
   <dimension ref="A1:X76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N58" sqref="N58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N74" sqref="N74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -547,10 +544,10 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
